--- a/nucleotide_salvage_tracing/Uridine-Hypoxanthine/output/H1299_isotopologues-corrected.xlsx
+++ b/nucleotide_salvage_tracing/Uridine-Hypoxanthine/output/H1299_isotopologues-corrected.xlsx
@@ -1032,10 +1032,10 @@
         <v>3307966421</v>
       </c>
       <c r="AX2">
-        <v>0.0008456151896234974</v>
+        <v>0.0008456151893301844</v>
       </c>
       <c r="AY2">
-        <v>0.9991543848103766</v>
+        <v>0.9991543848106699</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1050,10 +1050,10 @@
         <v>0.3026676066641841</v>
       </c>
       <c r="BD2">
-        <v>0.03294647269680937</v>
+        <v>0.03294647269680939</v>
       </c>
       <c r="BE2">
-        <v>0.6643859206390066</v>
+        <v>0.6643859206390065</v>
       </c>
       <c r="BF2">
         <v>0.2992821632022492</v>
@@ -1122,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.4785366816482033</v>
+        <v>0.4785366816413218</v>
       </c>
       <c r="CC2">
-        <v>0.4568410644784029</v>
+        <v>0.4568410644724659</v>
       </c>
       <c r="CD2">
-        <v>0.06462225387339382</v>
+        <v>0.06462225388621233</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -1280,7 +1280,7 @@
         <v>3097472628</v>
       </c>
       <c r="AX3">
-        <v>0.0007063080481669626</v>
+        <v>0.0007063080481669623</v>
       </c>
       <c r="AY3">
         <v>0.999293691951833</v>
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.6955468808004576</v>
+        <v>0.6955468807981892</v>
       </c>
       <c r="BQ3">
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.3044531191995425</v>
+        <v>0.3044531192018109</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0.4072828188063042</v>
       </c>
       <c r="CD3">
-        <v>0.02957319632684042</v>
+        <v>0.02957319632684043</v>
       </c>
     </row>
     <row r="4" spans="1:82">
@@ -1528,7 +1528,7 @@
         <v>2078452664</v>
       </c>
       <c r="AX4">
-        <v>0.0006083166668599201</v>
+        <v>0.00060831666685992</v>
       </c>
       <c r="AY4">
         <v>0.9993916833331401</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.9496754014260141</v>
+        <v>0.9496754014208193</v>
       </c>
       <c r="BY4">
-        <v>0.05032459857398588</v>
+        <v>0.05032459857918075</v>
       </c>
       <c r="BZ4">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0.9045132637410648</v>
       </c>
       <c r="CC4">
-        <v>0.07215323913882794</v>
+        <v>0.07215323913882793</v>
       </c>
       <c r="CD4">
         <v>0.0233334971201073</v>
@@ -1776,10 +1776,10 @@
         <v>3514708023</v>
       </c>
       <c r="AX5">
-        <v>0.0007224602127175523</v>
+        <v>0.0007224602127175247</v>
       </c>
       <c r="AY5">
-        <v>0.9992775397872824</v>
+        <v>0.9992775397872825</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1797,16 +1797,16 @@
         <v>0.2120144812069167</v>
       </c>
       <c r="BE5">
-        <v>0.04816885398816957</v>
+        <v>0.04816885398816956</v>
       </c>
       <c r="BF5">
         <v>0.731002913510683</v>
       </c>
       <c r="BG5">
-        <v>0.2030918724999216</v>
+        <v>0.2030918724999225</v>
       </c>
       <c r="BH5">
-        <v>0.06590521398939536</v>
+        <v>0.06590521398939458</v>
       </c>
       <c r="BI5">
         <v>0.7904897739029701</v>
@@ -1854,25 +1854,25 @@
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.8958935746652191</v>
+        <v>0.8958935746652189</v>
       </c>
       <c r="BY5">
         <v>0.04748774957880691</v>
       </c>
       <c r="BZ5">
-        <v>0.05661867575597405</v>
+        <v>0.05661867575597404</v>
       </c>
       <c r="CA5">
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.8848516394909827</v>
+        <v>0.8848516394867025</v>
       </c>
       <c r="CC5">
-        <v>0.09018468602078851</v>
+        <v>0.09018468602071635</v>
       </c>
       <c r="CD5">
-        <v>0.02496367448822881</v>
+        <v>0.02496367449258109</v>
       </c>
     </row>
     <row r="6" spans="1:82">
@@ -2039,22 +2039,22 @@
         <v>0.9789771229447993</v>
       </c>
       <c r="BC6">
-        <v>0.7980259184923756</v>
+        <v>0.7980259184923757</v>
       </c>
       <c r="BD6">
-        <v>0.1976204820877501</v>
+        <v>0.1976204820877503</v>
       </c>
       <c r="BE6">
-        <v>0.004353599419874283</v>
+        <v>0.00435359941987412</v>
       </c>
       <c r="BF6">
-        <v>0.7422459390989921</v>
+        <v>0.7422459390989919</v>
       </c>
       <c r="BG6">
-        <v>0.2367181348796613</v>
+        <v>0.2367181348796626</v>
       </c>
       <c r="BH6">
-        <v>0.02103592602134653</v>
+        <v>0.02103592602134557</v>
       </c>
       <c r="BI6">
         <v>0.8810371915611925</v>
@@ -2272,7 +2272,7 @@
         <v>2999684577</v>
       </c>
       <c r="AX7">
-        <v>0.0006900448231340036</v>
+        <v>0.0006900448231340033</v>
       </c>
       <c r="AY7">
         <v>0.999309955176866</v>
